--- a/Heron.Cady.xlsx
+++ b/Heron.Cady.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panda/Desktop/Automate forms project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE4953F-F4C5-2E49-BD25-73840B1A67B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331A7257-F680-3F4C-A0A6-EB0943C72087}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9160" yWindow="4260" windowWidth="38040" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34444,8 +34444,8 @@
   <pageMargins left="0" right="0" top="1" bottom="1" header="0.4" footer="0.5"/>
   <pageSetup orientation="landscape"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;LJOE B.
-123456789&amp;C&amp;9EL EMPLOYMENT HISTORY
+    <oddHeader>&amp;LHeron, Cady
+999999999&amp;C&amp;9EL EMPLOYMENT HISTORY
 &amp;20SAMPLE&amp;RDEPARTMENT OF ANCIENT RUINS</oddHeader>
     <oddFooter>&amp;L&amp;9#&amp;10 Service Period:     X = primary department
                               O = other department&amp;C&amp;7Ph.D.     1997     &amp;10
